--- a/data/trans_bre/VUL_ANS-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_ANS-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>7,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,88</t>
+          <t>2,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>83,82%</t>
+          <t>81,16%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>84,86%</t>
+          <t>118,2%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>96,8%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 4,93</t>
+          <t>0,26; 6,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,12; 8,92</t>
+          <t>3,4; 11,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 4,76</t>
+          <t>0,53; 5,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,52; 242,24</t>
+          <t>1,2; 214,02</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>32,93; 163,79</t>
+          <t>31,46; 272,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,55; 212,6</t>
+          <t>7,36; 273,05</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,25</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>68,4%</t>
+          <t>69,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>125,74%</t>
+          <t>174,07%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>79,21%</t>
+          <t>67,59%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,49</t>
+          <t>1,14; 3,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 6,04</t>
+          <t>1,69; 7,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 3,24</t>
+          <t>0,78; 3,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>20,38; 138,27</t>
+          <t>30,18; 131,64</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>67,31; 199,07</t>
+          <t>57,49; 389,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>35,23; 129,82</t>
+          <t>19,16; 141,28</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>95,09%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>44,97%</t>
+          <t>18,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>117,2%</t>
+          <t>96,71%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 2,83</t>
+          <t>0,54; 3,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 4,48</t>
+          <t>-2,59; 3,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,67</t>
+          <t>-0,2; 2,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 347,2</t>
+          <t>12,48; 222,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,53; 137,57</t>
+          <t>-37,25; 117,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,47; 275,3</t>
+          <t>-22,91; 349,61</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,04</t>
+          <t>2,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>4,74</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,25%</t>
+          <t>75,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>105,91%</t>
+          <t>130,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>86,95%</t>
+          <t>76,77%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 3,06</t>
+          <t>1,43; 3,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 5,73</t>
+          <t>2,13; 6,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,03</t>
+          <t>1,02; 2,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>36,97; 130,23</t>
+          <t>37,98; 122,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,47; 149,25</t>
+          <t>53,38; 231,73</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,65; 128,81</t>
+          <t>32,46; 133,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/VUL_ANS-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_ANS-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>81,16%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 6,08</t>
+          <t>1,16; 6,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,26</t>
+          <t>3,08; 11,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 214,02</t>
+          <t>16,53; 249,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,46; 272,38</t>
+          <t>33,69; 272,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>76,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,58</t>
+          <t>1,3; 3,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 7,33</t>
+          <t>1,55; 7,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,18; 131,64</t>
+          <t>34,13; 135,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>57,49; 389,16</t>
+          <t>58,97; 372,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>92,63%</t>
+          <t>52,78%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,48</t>
+          <t>-0,3; 2,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 3,87</t>
+          <t>-2,31; 3,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 222,38</t>
+          <t>-13,11; 168,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 117,32</t>
+          <t>-36,31; 109,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,0%</t>
+          <t>75,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 3,39</t>
+          <t>1,42; 3,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,55</t>
+          <t>2,46; 6,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>37,98; 122,28</t>
+          <t>42,66; 125,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,38; 231,73</t>
+          <t>63,39; 257,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/VUL_ANS-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/VUL_ANS-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>8,22</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2,97</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,76</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,97</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>141,38%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>96,8%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>96,41%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>118,2%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>96,8%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4,28; 11,98</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,53; 5,59</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>1,16; 6,44</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>3,08; 11,04</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 5,59</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>47,56; 310,96</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7,36; 273,05</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>16,53; 249,13</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>33,69; 272,33</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,36; 273,05</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,97</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>2,38</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,04</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>177,12%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>67,59%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>76,92%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>174,07%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>67,59%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>4,19; 7,82</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0,78; 3,55</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>1,3; 3,53</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 7,19</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,78; 3,55</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>90,46; 295,79</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>19,16; 141,28</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>34,13; 135,57</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>58,97; 372,65</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>19,16; 141,28</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,27</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>14,95%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>96,71%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>52,78%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>18,72%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>96,71%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,39; 3,33</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-0,2; 2,62</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-0,3; 2,67</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 3,79</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,2; 2,62</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-36,11; 99,49</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; 349,61</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-13,11; 168,5</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-36,31; 109,49</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-22,91; 349,61</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,37</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>2,27</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>4,74</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>131,67%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>76,77%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>75,29%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>130,64%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>76,77%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,86; 6,77</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 2,92</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,42; 3,24</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>2,46; 6,69</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 2,92</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>77,76; 195,97</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>32,46; 133,83</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>42,66; 125,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>63,39; 257,17</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>32,46; 133,83</t>
         </is>
       </c>
     </row>
